--- a/results/20250402/evaluation_emotions_noisy_0.2.xlsx
+++ b/results/20250402/evaluation_emotions_noisy_0.2.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.36479</v>
+        <v>0.63148</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0525</v>
+        <v>0.01859</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.16323</v>
+        <v>0.11976</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04888</v>
+        <v>0.03053</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.27327</v>
+        <v>0.61068</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03905</v>
+        <v>0.01893</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.08164</v>
+        <v>0.06173</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0266</v>
+        <v>0.02748</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.3646</v>
+        <v>0.63192</v>
       </c>
       <c r="I30" t="n">
-        <v>0.04861</v>
+        <v>0.01797</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.16526</v>
+        <v>0.12076</v>
       </c>
       <c r="I31" t="n">
-        <v>0.04815</v>
+        <v>0.03042</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.26631</v>
+        <v>0.60886</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04074</v>
+        <v>0.01752</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.07861</v>
+        <v>0.06779</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02905</v>
+        <v>0.02713</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.52835</v>
+        <v>0.61627</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0366</v>
+        <v>0.01345</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.32517</v>
+        <v>0.01485</v>
       </c>
       <c r="I35" t="n">
-        <v>0.04406</v>
+        <v>0.01437</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.51744</v>
+        <v>0.61677</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03342</v>
+        <v>0.01412</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.3127</v>
+        <v>0.02126</v>
       </c>
       <c r="I37" t="n">
-        <v>0.04213</v>
+        <v>0.01691</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.52859</v>
+        <v>0.61634</v>
       </c>
       <c r="I38" t="n">
-        <v>0.03657</v>
+        <v>0.01344</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.32618</v>
+        <v>0.01485</v>
       </c>
       <c r="I39" t="n">
-        <v>0.04448</v>
+        <v>0.01437</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.51764</v>
+        <v>0.6166700000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03256</v>
+        <v>0.01401</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.31303</v>
+        <v>0.02093</v>
       </c>
       <c r="I41" t="n">
-        <v>0.04167</v>
+        <v>0.01708</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.46739</v>
+        <v>0.5728799999999999</v>
       </c>
       <c r="I66" t="n">
-        <v>0.04595</v>
+        <v>0.01929</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.24175</v>
+        <v>0.05028</v>
       </c>
       <c r="I67" t="n">
-        <v>0.04813</v>
+        <v>0.02269</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.35411</v>
+        <v>0.56325</v>
       </c>
       <c r="I68" t="n">
-        <v>0.03948</v>
+        <v>0.02078</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.14092</v>
+        <v>0.0253</v>
       </c>
       <c r="I69" t="n">
-        <v>0.04252</v>
+        <v>0.01388</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.46733</v>
+        <v>0.57436</v>
       </c>
       <c r="I70" t="n">
-        <v>0.04497</v>
+        <v>0.01867</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.2367</v>
+        <v>0.05129</v>
       </c>
       <c r="I71" t="n">
-        <v>0.04731</v>
+        <v>0.0216</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.33881</v>
+        <v>0.56609</v>
       </c>
       <c r="I72" t="n">
-        <v>0.04073</v>
+        <v>0.02176</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.12944</v>
+        <v>0.03136</v>
       </c>
       <c r="I73" t="n">
-        <v>0.042</v>
+        <v>0.01456</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.50449</v>
+        <v>0.58562</v>
       </c>
       <c r="I74" t="n">
-        <v>0.04077</v>
+        <v>0.01371</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.27453</v>
+        <v>0.01012</v>
       </c>
       <c r="I75" t="n">
-        <v>0.04698</v>
+        <v>0.00827</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.46132</v>
+        <v>0.59026</v>
       </c>
       <c r="I76" t="n">
-        <v>0.03925</v>
+        <v>0.01417</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.23504</v>
+        <v>0.01856</v>
       </c>
       <c r="I77" t="n">
-        <v>0.04857</v>
+        <v>0.01147</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.50285</v>
+        <v>0.58574</v>
       </c>
       <c r="I78" t="n">
-        <v>0.03961</v>
+        <v>0.01357</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.2752</v>
+        <v>0.01012</v>
       </c>
       <c r="I79" t="n">
-        <v>0.04542</v>
+        <v>0.00827</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.46025</v>
+        <v>0.58978</v>
       </c>
       <c r="I80" t="n">
-        <v>0.03933</v>
+        <v>0.0141</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.23235</v>
+        <v>0.01789</v>
       </c>
       <c r="I81" t="n">
-        <v>0.04863</v>
+        <v>0.01179</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.3514</v>
+        <v>0.63469</v>
       </c>
       <c r="I106" t="n">
-        <v>0.04601</v>
+        <v>0.02001</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.1484</v>
+        <v>0.12209</v>
       </c>
       <c r="I107" t="n">
-        <v>0.0413</v>
+        <v>0.0321</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.27995</v>
+        <v>0.61419</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0352</v>
+        <v>0.01935</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.08266</v>
+        <v>0.06542000000000001</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02874</v>
+        <v>0.02824</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.35443</v>
+        <v>0.63491</v>
       </c>
       <c r="I110" t="n">
-        <v>0.04619</v>
+        <v>0.01941</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.15043</v>
+        <v>0.12209</v>
       </c>
       <c r="I111" t="n">
-        <v>0.04243</v>
+        <v>0.03066</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.27571</v>
+        <v>0.61076</v>
       </c>
       <c r="I112" t="n">
-        <v>0.03547</v>
+        <v>0.02135</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.0803</v>
+        <v>0.07113999999999999</v>
       </c>
       <c r="I113" t="n">
-        <v>0.03178</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.5083</v>
+        <v>0.6155</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0511</v>
+        <v>0.01386</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.28805</v>
+        <v>0.01788</v>
       </c>
       <c r="I115" t="n">
-        <v>0.06797</v>
+        <v>0.009339999999999999</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.50025</v>
+        <v>0.6153</v>
       </c>
       <c r="I116" t="n">
-        <v>0.05034</v>
+        <v>0.01385</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.27997</v>
+        <v>0.02024</v>
       </c>
       <c r="I117" t="n">
-        <v>0.06664</v>
+        <v>0.01012</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.5079900000000001</v>
+        <v>0.6155</v>
       </c>
       <c r="I118" t="n">
-        <v>0.05102</v>
+        <v>0.01391</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.28738</v>
+        <v>0.01788</v>
       </c>
       <c r="I119" t="n">
-        <v>0.06857000000000001</v>
+        <v>0.009339999999999999</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.4996</v>
+        <v>0.61491</v>
       </c>
       <c r="I120" t="n">
-        <v>0.04953</v>
+        <v>0.01383</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.27862</v>
+        <v>0.02024</v>
       </c>
       <c r="I121" t="n">
-        <v>0.06557</v>
+        <v>0.01012</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.46804</v>
+        <v>0.5733</v>
       </c>
       <c r="I146" t="n">
-        <v>0.0349</v>
+        <v>0.02183</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.24141</v>
+        <v>0.04421</v>
       </c>
       <c r="I147" t="n">
-        <v>0.05115</v>
+        <v>0.01877</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.35874</v>
+        <v>0.56488</v>
       </c>
       <c r="I148" t="n">
-        <v>0.03651</v>
+        <v>0.02176</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.1402</v>
+        <v>0.02833</v>
       </c>
       <c r="I149" t="n">
-        <v>0.04063</v>
+        <v>0.02061</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.46709</v>
+        <v>0.57485</v>
       </c>
       <c r="I150" t="n">
-        <v>0.03425</v>
+        <v>0.02231</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.2431</v>
+        <v>0.04522</v>
       </c>
       <c r="I151" t="n">
-        <v>0.04988</v>
+        <v>0.01947</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.33285</v>
+        <v>0.56769</v>
       </c>
       <c r="I152" t="n">
-        <v>0.03985</v>
+        <v>0.02609</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.12298</v>
+        <v>0.04116</v>
       </c>
       <c r="I153" t="n">
-        <v>0.04347</v>
+        <v>0.02422</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.50915</v>
+        <v>0.58495</v>
       </c>
       <c r="I154" t="n">
-        <v>0.03357</v>
+        <v>0.01683</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.28358</v>
+        <v>0.00844</v>
       </c>
       <c r="I155" t="n">
-        <v>0.0406</v>
+        <v>0.00925</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.47304</v>
+        <v>0.58907</v>
       </c>
       <c r="I156" t="n">
-        <v>0.0365</v>
+        <v>0.01761</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.25355</v>
+        <v>0.01824</v>
       </c>
       <c r="I157" t="n">
-        <v>0.04255</v>
+        <v>0.01471</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.50868</v>
+        <v>0.58462</v>
       </c>
       <c r="I158" t="n">
-        <v>0.03355</v>
+        <v>0.01708</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.28358</v>
+        <v>0.00844</v>
       </c>
       <c r="I159" t="n">
-        <v>0.04135</v>
+        <v>0.00925</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.47056</v>
+        <v>0.5884</v>
       </c>
       <c r="I160" t="n">
-        <v>0.03808</v>
+        <v>0.01852</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.25119</v>
+        <v>0.01824</v>
       </c>
       <c r="I161" t="n">
-        <v>0.04389</v>
+        <v>0.01471</v>
       </c>
     </row>
   </sheetData>
